--- a/case/test.xlsx
+++ b/case/test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\myworkplace\atutotest\case\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="12636"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>用例id</t>
   </si>
@@ -35,23 +30,71 @@
     <t>元素定位</t>
   </si>
   <si>
+    <t>元素定位方式</t>
+  </si>
+  <si>
+    <t>元素的定位路径</t>
+  </si>
+  <si>
     <t>测试数据</t>
   </si>
   <si>
     <t>打开链接</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>balabalabala</t>
+  </si>
+  <si>
     <t>导航链接</t>
   </si>
   <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>xpath路径</t>
+  </si>
+  <si>
     <t>输入</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>css路径</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>class路径</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>那么路径</t>
+  </si>
+  <si>
+    <t>tagname</t>
+  </si>
+  <si>
+    <t>tagname路径</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,21 +103,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -82,9 +449,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -93,17 +702,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -390,21 +1043,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="6" width="16.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +1076,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>11</v>
       </c>
@@ -429,73 +1091,178 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>44</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>5</v>
+      <c r="D7">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
       <formula1>"打开链接,导航链接,输入"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/case/test.xlsx
+++ b/case/test.xlsx
@@ -59,9 +59,6 @@
     <t>输入</t>
   </si>
   <si>
-    <t>css</t>
-  </si>
-  <si>
     <t>css路径</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>那么路径</t>
-  </si>
-  <si>
-    <t>tagname</t>
   </si>
   <si>
     <t>tagname路径</t>
@@ -177,6 +171,14 @@
   </si>
   <si>
     <t>balabalabala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +582,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -606,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -623,13 +625,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>2</v>
@@ -646,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -669,13 +671,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="2">
         <v>123</v>
@@ -692,13 +694,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G5" s="2">
         <v>123</v>
@@ -715,13 +717,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G6" s="2">
         <v>123</v>
@@ -738,13 +740,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2">
         <v>23</v>

--- a/case/test.xlsx
+++ b/case/test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>用例id</t>
   </si>
@@ -75,27 +75,6 @@
   </si>
   <si>
     <t>tagname路径</t>
-  </si>
-  <si>
-    <t>page.login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>age.logout</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -170,15 +149,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tag name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css selector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>balabalabala</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tag name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css selector</t>
+    <t>page.登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page.登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +264,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,11 +576,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="6" width="16.33203125" customWidth="1"/>
   </cols>
@@ -608,24 +603,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="5" ph="1">
         <v>11</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -633,22 +628,22 @@
       <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
-        <v>2</v>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="5" ph="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -661,20 +656,20 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="5" ph="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -684,17 +679,17 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="5" ph="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -707,17 +702,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="5" ph="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -730,20 +725,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="5" ph="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>

--- a/case/test.xlsx
+++ b/case/test.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\myworkplace\atutotest\case\"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>用例id</t>
   </si>
@@ -171,6 +171,24 @@
   <si>
     <t>第一行</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -221,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -244,13 +262,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,11 +298,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -573,10 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -586,7 +634,7 @@
     <col min="5" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,8 +656,17 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" ph="1">
         <v>11</v>
       </c>
@@ -631,8 +688,13 @@
       <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" ph="1">
         <v>2</v>
       </c>
@@ -654,8 +716,13 @@
       <c r="G3" s="2">
         <v>123</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" ph="1">
         <v>3</v>
       </c>
@@ -677,8 +744,13 @@
       <c r="G4" s="2">
         <v>123</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" ph="1">
         <v>4</v>
       </c>
@@ -700,8 +772,13 @@
       <c r="G5" s="2">
         <v>123</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" ph="1">
         <v>5</v>
       </c>
@@ -723,8 +800,13 @@
       <c r="G6" s="2">
         <v>123</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" ph="1">
         <v>6</v>
       </c>
@@ -746,21 +828,50 @@
       <c r="G7" s="2">
         <v>23</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
       <formula1>"打开链接,导航链接,输入"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{132366D0-3BA9-4FFE-8720-8CA9A67D1401}">
+            <xm:f>NOT(ISERROR(SEARCH($H$2,H2)))</xm:f>
+            <xm:f>$H$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -775,6 +886,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
